--- a/medicine/Premiers secours et secourisme/Signalisation_de_santé_et_de_sécurité_au_travail/Signalisation_de_santé_et_de_sécurité_au_travail.xlsx
+++ b/medicine/Premiers secours et secourisme/Signalisation_de_santé_et_de_sécurité_au_travail/Signalisation_de_santé_et_de_sécurité_au_travail.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Signalisation_de_sant%C3%A9_et_de_s%C3%A9curit%C3%A9_au_travail</t>
+          <t>Signalisation_de_santé_et_de_sécurité_au_travail</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La signalisation de santé et de sécurité au travail consiste en la mise en place d'une signalisation (panneaux, couleurs de sécurité et signaux lumineux ou acoustiques) est rendue obligatoire ou nécessaire à la suite de l’évaluation des risques professionnels en entreprise[1]. Elle doit être appropriée[2] et répondre aux exigences réglementaires[3].
-Les codes et les pictogrammes présentés dans les tableaux suivants sont ceux recommandés par la norme allemande DIN 4844-2[4]. La norme ISO 7010 donne des codes et des pictogrammes différents[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La signalisation de santé et de sécurité au travail consiste en la mise en place d'une signalisation (panneaux, couleurs de sécurité et signaux lumineux ou acoustiques) est rendue obligatoire ou nécessaire à la suite de l’évaluation des risques professionnels en entreprise. Elle doit être appropriée et répondre aux exigences réglementaires.
+Les codes et les pictogrammes présentés dans les tableaux suivants sont ceux recommandés par la norme allemande DIN 4844-2. La norme ISO 7010 donne des codes et des pictogrammes différents.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Signalisation_de_sant%C3%A9_et_de_s%C3%A9curit%C3%A9_au_travail</t>
+          <t>Signalisation_de_santé_et_de_sécurité_au_travail</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Destination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Elle s’adresse :
 aux maîtres d’ouvrages car, dans de nombreux cas, elle doit être prévue dès la conception des lieux de travail ;
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Signalisation_de_sant%C3%A9_et_de_s%C3%A9curit%C3%A9_au_travail</t>
+          <t>Signalisation_de_santé_et_de_sécurité_au_travail</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Interdiction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La lettre P provient du mot anglais prohibition qui veut dire interdiction. 
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Signalisation_de_sant%C3%A9_et_de_s%C3%A9curit%C3%A9_au_travail</t>
+          <t>Signalisation_de_santé_et_de_sécurité_au_travail</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Danger</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La lettre W provient du mot anglais warning qui veut dire avertissement.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Signalisation_de_sant%C3%A9_et_de_s%C3%A9curit%C3%A9_au_travail</t>
+          <t>Signalisation_de_santé_et_de_sécurité_au_travail</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Obligation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La lettre M provient du mot anglais mandatory qui veut dire obligatoire.
 </t>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Signalisation_de_sant%C3%A9_et_de_s%C3%A9curit%C3%A9_au_travail</t>
+          <t>Signalisation_de_santé_et_de_sécurité_au_travail</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,7 +658,9 @@
           <t>Évacuation et premiers secours</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La lettre E provient du mot anglais emergency qui veut dire urgence.
 </t>
@@ -651,7 +673,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Signalisation_de_sant%C3%A9_et_de_s%C3%A9curit%C3%A9_au_travail</t>
+          <t>Signalisation_de_santé_et_de_sécurité_au_travail</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -669,7 +691,9 @@
           <t>Sécurité incendie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La lettre F provient du mot anglais fire qui veut dire incendie.
 </t>
